--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\IP-5_AppleTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreazirn/GitHub/IP-5_AppleTV/PM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="19536" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23920" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="MileStone Definition" sheetId="2" r:id="rId2"/>
+    <sheet name="Hours_Beta" sheetId="3" r:id="rId3"/>
+    <sheet name="Hours_Gamma" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Project Week</t>
   </si>
@@ -112,9 +117,6 @@
   </si>
   <si>
     <t>(Pausieren, Rück- und Vorspulen)</t>
-  </si>
-  <si>
-    <t>Video an Demand</t>
   </si>
   <si>
     <t>TV Guide</t>
@@ -243,22 +245,66 @@
   </si>
   <si>
     <t>Deliveries</t>
+  </si>
+  <si>
+    <t>Video on Demand</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>GAMMA</t>
+  </si>
+  <si>
+    <t>Ferien</t>
+  </si>
+  <si>
+    <t>Bug fixing, Refactoring</t>
+  </si>
+  <si>
+    <t>Usability Tests</t>
+  </si>
+  <si>
+    <t>Kundenmeeting</t>
+  </si>
+  <si>
+    <t>Desgin Research</t>
+  </si>
+  <si>
+    <t>Streaming Research</t>
+  </si>
+  <si>
+    <t>GUI (TVML)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +339,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="2"/>
       <name val="Calibri"/>
@@ -355,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -741,13 +788,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -759,10 +806,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -771,7 +818,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -786,7 +833,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -795,7 +842,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,19 +851,19 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -825,6 +872,233 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1005,7 +1279,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1068,7 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,16 +1355,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1118,17 +1384,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1145,7 +1406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1153,8 +1413,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1168,9 +1434,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1180,225 +1443,336 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="175">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1684,46 +2058,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="20" width="5.19921875" customWidth="1"/>
-    <col min="23" max="23" width="21.69921875" customWidth="1"/>
+    <col min="2" max="20" width="5.1640625" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:23" ht="39" customHeight="1">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+    </row>
+    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="20">
         <v>42266</v>
@@ -1780,7 +2154,7 @@
         <v>42385</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.2" thickBot="1">
+    <row r="3" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22">
         <v>38</v>
@@ -1837,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.2" thickBot="1">
+    <row r="4" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1859,12 +2233,12 @@
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
       <c r="S4" s="24"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="T4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1872,21 +2246,21 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="49"/>
+      <c r="F5" s="43"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1894,22 +2268,22 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="51"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="50"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1917,19 +2291,19 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="44"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="52"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="35"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1937,20 +2311,20 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="52"/>
+      <c r="F8" s="46"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="14"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="52"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="19"/>
       <c r="N8" s="2"/>
-      <c r="P8" s="53"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="15"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1960,18 +2334,18 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="40"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="43"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -1979,24 +2353,24 @@
       <c r="C10" s="19"/>
       <c r="D10" s="16"/>
       <c r="E10" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="J10" s="19"/>
       <c r="K10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2384,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="33"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2019,7 +2393,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="16.2" thickBot="1">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2037,24 +2411,24 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="3"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="16.2" thickBot="1">
+    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="28"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
@@ -2065,181 +2439,197 @@
       <c r="R13" s="23"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="38" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30" t="s">
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="138"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="44" t="s">
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="94">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="29">
         <f>SUM(G15:G19)</f>
         <v>76</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="29">
         <f>SUM(H15:H19)</f>
         <v>70</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="91">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15">
+        <v>63</v>
+      </c>
+      <c r="P15" s="91">
         <f>M15*10*2</f>
         <v>80</v>
       </c>
-      <c r="S15" s="36"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="45" t="s">
+      <c r="S15" s="35"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="85"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="84">
         <v>12</v>
       </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="45" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="M16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="85"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="84">
         <v>22</v>
       </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="46"/>
-      <c r="B18" s="94" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="M17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="92"/>
+      <c r="B18" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="85"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="84">
         <v>16</v>
       </c>
-      <c r="S18" s="36"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="37"/>
-      <c r="B19" s="96" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="M18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="94"/>
+      <c r="B19" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="91">
         <v>6</v>
       </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="M19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="105"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2250,138 +2640,156 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="M20" s="93"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="P20" s="93"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="S20" s="39"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="M21" s="92">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="92">
+        <f>M21*8*2</f>
+        <v>96</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21">
-        <f>M21*10*2</f>
-        <v>120</v>
-      </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-    </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1">
-      <c r="A22" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="B22" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
-      <c r="A23" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="H22" s="84"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="M22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
-      <c r="B24" s="79" t="s">
+      <c r="H23" s="84"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="M23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-    </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1">
-      <c r="B25" s="79" t="s">
+      <c r="H24" s="84"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="M24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+    </row>
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="B26" s="79" t="s">
+      <c r="H25" s="84"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="M25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="S26" s="36"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="M26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="S26" s="35"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="105"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2392,258 +2800,423 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="M27" s="113"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="113"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="47"/>
-    </row>
-    <row r="28" spans="1:23" ht="30" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="S27" s="41"/>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="M28" s="29" t="s">
+      <c r="H28" s="94"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="M28" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="112">
+        <v>80</v>
+      </c>
+      <c r="S28" s="35"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="L29" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29">
+      <c r="M29" s="111">
+        <v>3</v>
+      </c>
+      <c r="N29" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="85"/>
+      <c r="P29" s="111">
+        <f>SUM(M29*8*2)</f>
+        <v>48</v>
+      </c>
+      <c r="S29" s="35"/>
+    </row>
+    <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="M30" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="112">
+        <f>SUM(P28:P29)</f>
+        <v>128</v>
+      </c>
+      <c r="S30" s="35"/>
+    </row>
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="M31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="M32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="M33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="M34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="M35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="M36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="118"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="41"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="119"/>
+      <c r="B38" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="S28" s="36"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1">
-      <c r="A29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="L29" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="29">
-        <v>3</v>
-      </c>
-      <c r="N29" s="29" t="s">
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="92">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" s="92">
+        <f>M38*8*2</f>
+        <v>32</v>
+      </c>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="120"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="L39" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="92">
+        <v>40</v>
+      </c>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="122"/>
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="M41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="S41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="123"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29">
-        <f>SUM(M29*10*2)</f>
-        <v>60</v>
-      </c>
-      <c r="S29" s="36"/>
-    </row>
-    <row r="30" spans="1:23" ht="30" customHeight="1">
-      <c r="B30" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="M30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29">
-        <f>SUM(P28:P29)</f>
-        <v>140</v>
-      </c>
-      <c r="S30" s="36"/>
-    </row>
-    <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="B31" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="S31" s="36"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="S32" s="36"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="B33" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="S33" s="36"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="B34" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="S34" s="36"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="29"/>
-      <c r="S35" s="36"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="47"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="B37" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37">
-        <f>M37*10*2</f>
-        <v>40</v>
-      </c>
-      <c r="S37" s="36"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="B38" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="S38" s="36"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="B39" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="S39" s="36"/>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="S40" s="36"/>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="S41" s="36"/>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="S42" s="36"/>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="S43" s="36"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="S44" s="36"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="128">
+        <f>P15+P21+P28+P29+P38+P39</f>
+        <v>376</v>
+      </c>
+      <c r="Q42" s="123"/>
+      <c r="R42" s="123"/>
+      <c r="S42" s="129"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
@@ -2655,14 +3228,17 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2674,109 +3250,879 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.296875" customWidth="1"/>
-    <col min="2" max="2" width="36.296875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.2">
-      <c r="A2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66" t="s">
+      <c r="B5" s="60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.8" thickBot="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="56"/>
+      <c r="B6" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="77" t="s">
+    <row r="7" spans="1:2" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="70" t="s">
+      <c r="B8" s="63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.4" thickBot="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="77" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+    </row>
+    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="70" t="s">
+      <c r="B12" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="70"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="72" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="71" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="62" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="152">
+        <v>42663</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="154">
+        <v>4</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="152">
+        <v>42664</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="154">
+        <v>6</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="152">
+        <v>42671</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="154">
+        <v>5</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="152">
+        <v>42672</v>
+      </c>
+      <c r="B8" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="154">
+        <v>2</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="155">
+        <v>42677</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="154">
+        <v>2</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="152">
+        <v>42678</v>
+      </c>
+      <c r="B10" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="154">
+        <v>3</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="152">
+        <v>42678</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="154">
+        <v>2</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="152">
+        <v>42684</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="154">
+        <v>2</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="152">
+        <v>42685</v>
+      </c>
+      <c r="B13" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="154">
+        <v>5</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="152">
+        <v>42690</v>
+      </c>
+      <c r="B14" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="154">
+        <v>2</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="152">
+        <v>42690</v>
+      </c>
+      <c r="B15" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="154">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="152">
+        <v>42692</v>
+      </c>
+      <c r="B16" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="154">
+        <v>4</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="152">
+        <v>42696</v>
+      </c>
+      <c r="B17" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="154">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="152">
+        <v>42697</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="151"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="151"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C5:C22)</f>
+        <v>39</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G5:G22)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreazirn/GitHub/IP-5_AppleTV/PM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\IP-5_AppleTV\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23920" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Hours_Beta" sheetId="3" r:id="rId3"/>
     <sheet name="Hours_Gamma" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Project Week</t>
   </si>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -1413,51 +1413,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1476,48 +1431,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1525,26 +1444,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,12 +1464,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1578,201 +1515,264 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="175">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2058,46 +2058,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="20" width="5.1640625" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" customWidth="1"/>
+    <col min="2" max="20" width="5.19921875" customWidth="1"/>
+    <col min="23" max="23" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
-    </row>
-    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="135"/>
+    </row>
+    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="20">
         <v>42266</v>
@@ -2154,7 +2154,7 @@
         <v>42385</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="22">
         <v>38</v>
@@ -2211,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="V4" s="52"/>
       <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="R5" s="42"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="34"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2345,7 +2345,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -2439,62 +2439,62 @@
       <c r="R13" s="23"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="135" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="137" t="s">
+      <c r="I14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="137" t="s">
+      <c r="J14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="141" t="s">
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="138" t="s">
+      <c r="N14" s="105"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="139"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="106"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="80"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="79">
         <v>14</v>
       </c>
       <c r="I15" s="29">
@@ -2505,13 +2505,13 @@
         <f>SUM(H15:H19)</f>
         <v>70</v>
       </c>
-      <c r="M15" s="91">
+      <c r="M15" s="76">
         <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="91">
+      <c r="P15" s="76">
         <f>M15*10*2</f>
         <v>80</v>
       </c>
@@ -2521,115 +2521,115 @@
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="76"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="69">
         <v>12</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
-      <c r="M16" s="92"/>
-      <c r="P16" s="92"/>
+      <c r="M16" s="77"/>
+      <c r="P16" s="77"/>
       <c r="S16" s="35"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="76"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="69">
         <v>22</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="M17" s="92"/>
-      <c r="P17" s="92"/>
+      <c r="M17" s="77"/>
+      <c r="P17" s="77"/>
       <c r="S17" s="35"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
-      <c r="B18" s="103" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="77"/>
+      <c r="B18" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="76"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="69">
         <v>16</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="M18" s="92"/>
-      <c r="P18" s="92"/>
+      <c r="M18" s="77"/>
+      <c r="P18" s="77"/>
       <c r="S18" s="35"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
-      <c r="B19" s="104" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="79"/>
+      <c r="B19" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="76">
         <v>6</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="M19" s="92"/>
-      <c r="P19" s="92"/>
+      <c r="M19" s="77"/>
+      <c r="P19" s="77"/>
       <c r="S19" s="35"/>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2640,10 +2640,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="93"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="93"/>
+      <c r="P20" s="78"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="39"/>
@@ -2652,28 +2652,36 @@
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="M21" s="92">
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="29">
+        <v>20</v>
+      </c>
+      <c r="H21" s="79"/>
+      <c r="I21" s="36">
+        <f>SUM(G21:G27)</f>
+        <v>96</v>
+      </c>
+      <c r="J21" s="36">
+        <f>SUM(H21:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="77">
         <v>6</v>
       </c>
       <c r="N21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="92">
+      <c r="P21" s="77">
         <f>M21*8*2</f>
         <v>96</v>
       </c>
@@ -2683,540 +2691,562 @@
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
     </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98" t="s">
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="29">
+        <v>10</v>
+      </c>
+      <c r="H22" s="69"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="M22" s="92"/>
-      <c r="P22" s="92"/>
+      <c r="M22" s="77"/>
+      <c r="P22" s="77"/>
       <c r="S22" s="35"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="29">
+        <v>5</v>
+      </c>
+      <c r="H23" s="69"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="M23" s="92"/>
-      <c r="P23" s="92"/>
+      <c r="M23" s="77"/>
+      <c r="P23" s="77"/>
       <c r="S23" s="35"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="107" t="s">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="84"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="29">
+        <v>15</v>
+      </c>
+      <c r="H24" s="69"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
-      <c r="M24" s="92"/>
-      <c r="P24" s="92"/>
+      <c r="M24" s="77"/>
+      <c r="P24" s="77"/>
       <c r="S24" s="35"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="107" t="s">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="29">
+        <v>20</v>
+      </c>
+      <c r="H25" s="69"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="M25" s="92"/>
-      <c r="P25" s="92"/>
+      <c r="M25" s="77"/>
+      <c r="P25" s="77"/>
       <c r="S25" s="35"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
       <c r="W25" s="31"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="107" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="29">
+        <v>15</v>
+      </c>
+      <c r="H26" s="76"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
-      <c r="M26" s="92"/>
-      <c r="P26" s="92"/>
+      <c r="M26" s="77"/>
+      <c r="P26" s="77"/>
       <c r="S26" s="35"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="143" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="29">
+        <v>11</v>
+      </c>
+      <c r="H27" s="76"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="M27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="S27" s="70"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="41"/>
-    </row>
-    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="41"/>
+    </row>
+    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B29" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="M28" s="112" t="s">
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="M29" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="112">
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="88">
         <v>80</v>
       </c>
-      <c r="S28" s="35"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="S29" s="35"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B30" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="L29" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="111">
-        <v>3</v>
-      </c>
-      <c r="N29" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="85"/>
-      <c r="P29" s="111">
-        <f>SUM(M29*8*2)</f>
-        <v>48</v>
-      </c>
-      <c r="S29" s="35"/>
-    </row>
-    <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="84"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
-      <c r="M30" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" s="116"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="112">
-        <f>SUM(P28:P29)</f>
-        <v>128</v>
+      <c r="L30" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="87">
+        <v>3</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="70"/>
+      <c r="P30" s="87">
+        <f>SUM(M30*8*2)</f>
+        <v>48</v>
       </c>
       <c r="S30" s="35"/>
     </row>
-    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="84"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="M31" s="92"/>
-      <c r="P31" s="92"/>
+      <c r="M31" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="119"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="88">
+        <f>SUM(P29:P30)</f>
+        <v>128</v>
+      </c>
       <c r="S31" s="35"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="70"/>
+    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="84"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="M32" s="92"/>
-      <c r="P32" s="92"/>
+      <c r="M32" s="77"/>
+      <c r="P32" s="77"/>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="70"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="155"/>
       <c r="G33" s="29"/>
-      <c r="H33" s="84"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
-      <c r="M33" s="92"/>
-      <c r="P33" s="92"/>
+      <c r="M33" s="77"/>
+      <c r="P33" s="77"/>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="70"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B34" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="155"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="84"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="M34" s="92"/>
-      <c r="P34" s="92"/>
+      <c r="M34" s="77"/>
+      <c r="P34" s="77"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B35" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="M35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="M35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="S35" s="35"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="91"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
-      <c r="M36" s="92"/>
-      <c r="P36" s="92"/>
+      <c r="M36" s="77"/>
+      <c r="P36" s="77"/>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="143" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="M37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="41"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="119"/>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="41"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="92"/>
+      <c r="B39" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="92">
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="77">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N39" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="92">
-        <f>M38*8*2</f>
+      <c r="P39" s="77">
+        <f>M39*8*2</f>
         <v>32</v>
       </c>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="120"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="103" t="s">
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="93"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B40" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="L39" s="90" t="s">
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="L40" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M39" s="92" t="s">
+      <c r="M40" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="P39" s="92">
+      <c r="P40" s="77">
         <v>40</v>
       </c>
-      <c r="S39" s="35"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="103" t="s">
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B41" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="122"/>
-      <c r="S40" s="35"/>
-    </row>
-    <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="103" t="s">
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="95"/>
+      <c r="S41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="M41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="S41" s="35"/>
-    </row>
-    <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="123"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="125" t="s">
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="M42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="S42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="96"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="128">
-        <f>P15+P21+P28+P29+P38+P39</f>
+      <c r="N43" s="124"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="98">
+        <f>P15+P21+P29+P30+P39+P40</f>
         <v>376</v>
       </c>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="123"/>
-      <c r="S42" s="129"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="99"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B28:F28"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
@@ -3228,14 +3258,21 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3247,16 +3284,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.296875" customWidth="1"/>
+    <col min="2" max="2" width="36.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>51</v>
       </c>
@@ -3264,7 +3301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>47</v>
       </c>
@@ -3272,19 +3309,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
       <c r="B3" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
       <c r="B4" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>48</v>
       </c>
@@ -3292,19 +3329,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
       <c r="B6" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>49</v>
       </c>
@@ -3312,21 +3349,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="61"/>
     </row>
-    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="65"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>50</v>
       </c>
@@ -3334,19 +3371,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="62" t="s">
         <v>26</v>
@@ -3362,337 +3399,355 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="40"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152">
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
         <v>42663</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="116">
         <v>4</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="152">
+      <c r="E5" s="115"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="114">
         <v>42664</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="116">
         <v>6</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="152">
+      <c r="E6" s="115"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114">
         <v>42671</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="116">
         <v>5</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="152">
+      <c r="E7" s="115"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="114">
         <v>42672</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="116">
         <v>2</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="155">
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="117">
         <v>42677</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="116">
         <v>2</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="152">
+      <c r="E9" s="115"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="114">
         <v>42678</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="116">
         <v>3</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="152">
+      <c r="E10" s="115"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="114">
         <v>42678</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="116">
         <v>2</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="152">
+      <c r="E11" s="115"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="114">
         <v>42684</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="154">
+      <c r="C12" s="116">
         <v>2</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="152">
+      <c r="E12" s="114">
+        <v>42684</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="114">
         <v>42685</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="154">
+      <c r="C13" s="116">
         <v>5</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="152">
+      <c r="E13" s="114">
         <v>42690</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="F13" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="114">
+        <v>42690</v>
+      </c>
+      <c r="B14" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="116">
         <v>2</v>
       </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="152">
+      <c r="E14" s="115"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="114">
         <v>42690</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="154">
+      <c r="C15" s="116">
         <v>1</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="152">
+      <c r="E15" s="115"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="114">
         <v>42692</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="116">
         <v>4</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="152">
+      <c r="E16" s="115"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="114">
         <v>42696</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="116">
         <v>1</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="152">
+      <c r="E17" s="114">
+        <v>42696</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="114">
         <v>42697</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="154"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="151"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="154"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="154"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="154"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="154"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="89" t="s">
+      <c r="E22" s="115"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="74" t="s">
         <v>64</v>
       </c>
       <c r="C23">
         <f>SUM(C5:C22)</f>
         <v>39</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="74" t="s">
         <v>64</v>
       </c>
       <c r="G23">
         <f>SUM(G5:G22)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3708,415 +3763,415 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="40"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="84"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="40"/>
       <c r="E5" s="53"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="84"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="40"/>
       <c r="E6" s="53"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="84"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="40"/>
       <c r="E7" s="53"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="84"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="40"/>
       <c r="E8" s="53"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="84"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="40"/>
       <c r="E9" s="53"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="84"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="40"/>
       <c r="E10" s="53"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="84"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="40"/>
       <c r="E11" s="53"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="84"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="40"/>
       <c r="E12" s="53"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="84"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="40"/>
       <c r="E13" s="53"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="84"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="40"/>
       <c r="E14" s="53"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="84"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="40"/>
       <c r="E15" s="53"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="84"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="40"/>
       <c r="E16" s="53"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="84"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="40"/>
       <c r="E17" s="53"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="84"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="40"/>
       <c r="E18" s="53"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="84"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="40"/>
       <c r="E19" s="53"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="84"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="40"/>
       <c r="E20" s="53"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="84"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="40"/>
       <c r="E21" s="53"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="84"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="40"/>
       <c r="E22" s="53"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="40"/>
       <c r="E23" s="53"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
-      <c r="C24" s="84"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="40"/>
       <c r="E24" s="53"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="84"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="40"/>
       <c r="E25" s="53"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="84"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="40"/>
       <c r="E26" s="53"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="84"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="40"/>
       <c r="E27" s="53"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="84"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="40"/>
       <c r="E28" s="53"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="84"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="40"/>
       <c r="E29" s="53"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="84"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="40"/>
       <c r="E30" s="53"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="84"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="40"/>
       <c r="E31" s="53"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="84"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="40"/>
       <c r="E32" s="53"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="84"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="40"/>
       <c r="E33" s="53"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="84"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="40"/>
       <c r="E34" s="53"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
-      <c r="C35" s="84"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="40"/>
       <c r="E35" s="53"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
-      <c r="C36" s="84"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="40"/>
       <c r="E36" s="53"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
-      <c r="C37" s="84"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="40"/>
       <c r="E37" s="53"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
-      <c r="C38" s="84"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="40"/>
       <c r="E38" s="53"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
-      <c r="C39" s="84"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="40"/>
       <c r="E39" s="53"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="84"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="40"/>
       <c r="E40" s="53"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="84"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="40"/>
       <c r="E41" s="53"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="84"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="40"/>
       <c r="E42" s="53"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="84"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="40"/>
       <c r="E43" s="53"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="84"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="40"/>
       <c r="E44" s="53"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
-      <c r="C45" s="84"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="40"/>
       <c r="E45" s="53"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
-      <c r="C46" s="84"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="40"/>
       <c r="E46" s="53"/>
       <c r="F46" s="29"/>

--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Project Week</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>GUI (TVML)</t>
+  </si>
+  <si>
+    <t>Kundenmeeting + Vorbereitung</t>
+  </si>
+  <si>
+    <t>FFMpeg Research</t>
+  </si>
+  <si>
+    <t>Streaming Setup aufsetzen mit Ffmpeg und simpleHttpSever</t>
+  </si>
+  <si>
+    <t>Streaming Research JWPlayer</t>
+  </si>
+  <si>
+    <t>Streaming Research Wowza-Media-Server</t>
+  </si>
+  <si>
+    <t>Detailiertere Recherche bzgl Ffmpeg und Apple-Developer-Tools. Erstes Proof of concept</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1482,6 +1500,78 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,85 +1605,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2060,11 +2088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2075,27 +2103,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="135"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
     </row>
     <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2443,11 +2471,11 @@
       <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="102" t="s">
@@ -2484,13 +2512,13 @@
       <c r="A15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
@@ -2525,13 +2553,13 @@
       <c r="A16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
@@ -2552,13 +2580,13 @@
       <c r="A17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
@@ -2577,13 +2605,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="77"/>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
@@ -2602,13 +2630,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
@@ -2656,13 +2684,13 @@
       <c r="A21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
       <c r="G21" s="29">
         <v>20</v>
       </c>
@@ -2695,13 +2723,13 @@
       <c r="A22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="29">
         <v>10</v>
       </c>
@@ -2720,13 +2748,13 @@
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
       <c r="G23" s="29">
         <v>5</v>
       </c>
@@ -2742,13 +2770,13 @@
       <c r="W23" s="31"/>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
       <c r="G24" s="29">
         <v>15</v>
       </c>
@@ -2764,13 +2792,13 @@
       <c r="W24" s="31"/>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
       <c r="G25" s="29">
         <v>20</v>
       </c>
@@ -2786,13 +2814,13 @@
       <c r="W25" s="31"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="29">
         <v>15</v>
       </c>
@@ -2804,13 +2832,13 @@
       <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="29">
         <v>11</v>
       </c>
@@ -2848,13 +2876,13 @@
       <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="29"/>
       <c r="H29" s="79"/>
       <c r="I29" s="36"/>
@@ -2873,13 +2901,13 @@
       <c r="A30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="29"/>
       <c r="H30" s="69"/>
       <c r="I30" s="29"/>
@@ -2901,22 +2929,22 @@
       <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="29"/>
       <c r="H31" s="69"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="M31" s="118" t="s">
+      <c r="M31" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="119"/>
-      <c r="O31" s="120"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="144"/>
       <c r="P31" s="88">
         <f>SUM(P29:P30)</f>
         <v>128</v>
@@ -2924,13 +2952,13 @@
       <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="29"/>
       <c r="H32" s="69"/>
       <c r="I32" s="29"/>
@@ -2943,12 +2971,12 @@
       <c r="A33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
       <c r="F33" s="155"/>
       <c r="G33" s="29"/>
       <c r="H33" s="69"/>
@@ -2959,12 +2987,12 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="155"/>
       <c r="G34" s="29"/>
       <c r="H34" s="69"/>
@@ -2975,12 +3003,12 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="155"/>
       <c r="G35" s="29"/>
       <c r="H35" s="69"/>
@@ -2994,11 +3022,11 @@
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="152"/>
       <c r="G36" s="81"/>
       <c r="H36" s="76"/>
       <c r="I36" s="38"/>
@@ -3011,11 +3039,11 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="141"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="81"/>
       <c r="H37" s="76"/>
       <c r="I37" s="38"/>
@@ -3049,13 +3077,13 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="122"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
       <c r="G39" s="111"/>
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
@@ -3077,13 +3105,13 @@
       <c r="S39" s="93"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
       <c r="G40" s="36"/>
       <c r="H40" s="79"/>
       <c r="I40" s="36"/>
@@ -3100,13 +3128,13 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="29"/>
       <c r="H41" s="69"/>
       <c r="I41" s="29"/>
@@ -3117,13 +3145,13 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="38"/>
       <c r="H42" s="76"/>
       <c r="I42" s="38"/>
@@ -3145,11 +3173,11 @@
       <c r="J43" s="96"/>
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
-      <c r="M43" s="123" t="s">
+      <c r="M43" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="124"/>
-      <c r="O43" s="125"/>
+      <c r="N43" s="148"/>
+      <c r="O43" s="149"/>
       <c r="P43" s="98">
         <f>P15+P21+P29+P30+P39+P40</f>
         <v>376</v>
@@ -3244,6 +3272,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B37:F37"/>
@@ -3260,19 +3301,6 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3398,13 +3426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3458,9 +3487,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="E5" s="114">
+        <v>42664</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="157">
+        <v>6</v>
+      </c>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -3478,9 +3513,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
+      <c r="E6" s="156">
+        <v>42665</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="157">
+        <v>3</v>
+      </c>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -3498,9 +3539,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="E7" s="156">
+        <v>42671</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="157">
+        <v>4</v>
+      </c>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -3518,9 +3565,15 @@
         <v>2</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
+      <c r="E8" s="156">
+        <v>42678</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="157">
+        <v>4</v>
+      </c>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -3538,9 +3591,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
+      <c r="E9" s="156">
+        <v>42678</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="157">
+        <v>2</v>
+      </c>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -3558,9 +3617,15 @@
         <v>3</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
+      <c r="E10" s="156">
+        <v>42685</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="157">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="114">
@@ -3573,9 +3638,15 @@
         <v>2</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
+      <c r="E11" s="156">
+        <v>42685</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="157">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="114">
@@ -3594,7 +3665,7 @@
       <c r="F12" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="116">
+      <c r="G12" s="157">
         <v>2</v>
       </c>
     </row>
@@ -3613,13 +3684,13 @@
         <v>42690</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G13" s="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="114">
         <v>42690</v>
       </c>
@@ -3630,11 +3701,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="156">
+        <v>42692</v>
+      </c>
+      <c r="F14" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>42690</v>
       </c>
@@ -3645,11 +3722,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="156">
+        <v>42693</v>
+      </c>
+      <c r="F15" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="114">
         <v>42692</v>
       </c>
@@ -3660,9 +3743,15 @@
         <v>4</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="156">
+        <v>42697</v>
+      </c>
+      <c r="F16" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="158">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="114">
@@ -3675,14 +3764,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="114">
-        <v>42696</v>
+      <c r="E17" s="156">
+        <v>42698</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="116">
-        <v>1</v>
+      <c r="G17" s="158">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3721,18 +3810,19 @@
       <c r="B21" s="113"/>
       <c r="C21" s="116"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
+      <c r="F21" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G5:G20)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="113"/>
       <c r="B22" s="113"/>
       <c r="C22" s="116"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="74" t="s">
@@ -3741,13 +3831,6 @@
       <c r="C23">
         <f>SUM(C5:C22)</f>
         <v>39</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G5:G22)</f>
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
-    <sheet name="MileStone Definition" sheetId="2" r:id="rId2"/>
-    <sheet name="Hours_Beta" sheetId="3" r:id="rId3"/>
-    <sheet name="Hours_Gamma" sheetId="4" r:id="rId4"/>
+    <sheet name="Projectweek_Tasks" sheetId="5" r:id="rId2"/>
+    <sheet name="MileStone Definition" sheetId="2" r:id="rId3"/>
+    <sheet name="Hours_Beta" sheetId="3" r:id="rId4"/>
+    <sheet name="Hours_Gamma" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Project Week</t>
   </si>
@@ -308,6 +309,57 @@
   </si>
   <si>
     <t>Detailiertere Recherche bzgl Ffmpeg und Apple-Developer-Tools. Erstes Proof of concept</t>
+  </si>
+  <si>
+    <t>Live-Event-Streaming</t>
+  </si>
+  <si>
+    <t>Adaptive Streaming</t>
+  </si>
+  <si>
+    <t>Encoding the variants</t>
+  </si>
+  <si>
+    <t>Keyframes</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Subtitles</t>
+  </si>
+  <si>
+    <t>Tasks Streaming</t>
+  </si>
+  <si>
+    <t>GUI/App</t>
+  </si>
+  <si>
+    <t>TV-Guide</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Est. Time</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Streaming_Total</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>GUI/App_Total</t>
+  </si>
+  <si>
+    <t>Report_Abstract</t>
   </si>
 </sst>
 </file>
@@ -364,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +471,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1119,6 +1177,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1297,7 +1370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1500,120 +1573,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1624,6 +1583,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="175">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2092,7 +2166,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2103,27 +2177,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="144"/>
     </row>
     <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2471,11 +2545,11 @@
       <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="102" t="s">
@@ -2512,13 +2586,13 @@
       <c r="A15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="156"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
@@ -2553,13 +2627,13 @@
       <c r="A16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="145"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
@@ -2580,13 +2654,13 @@
       <c r="A17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="145"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
@@ -2605,13 +2679,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="77"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="145"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
@@ -2630,13 +2704,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
@@ -2684,13 +2758,13 @@
       <c r="A21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="29">
         <v>20</v>
       </c>
@@ -2723,13 +2797,13 @@
       <c r="A22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
       <c r="G22" s="29">
         <v>10</v>
       </c>
@@ -2748,13 +2822,13 @@
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="29">
         <v>5</v>
       </c>
@@ -2770,13 +2844,13 @@
       <c r="W23" s="31"/>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="29">
         <v>15</v>
       </c>
@@ -2792,13 +2866,13 @@
       <c r="W24" s="31"/>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="29">
         <v>20</v>
       </c>
@@ -2814,13 +2888,13 @@
       <c r="W25" s="31"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="29">
         <v>15</v>
       </c>
@@ -2832,13 +2906,13 @@
       <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="29">
         <v>11</v>
       </c>
@@ -2876,13 +2950,13 @@
       <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
       <c r="G29" s="29"/>
       <c r="H29" s="79"/>
       <c r="I29" s="36"/>
@@ -2901,13 +2975,13 @@
       <c r="A30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="145"/>
       <c r="G30" s="29"/>
       <c r="H30" s="69"/>
       <c r="I30" s="29"/>
@@ -2929,22 +3003,22 @@
       <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
       <c r="G31" s="29"/>
       <c r="H31" s="69"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="M31" s="142" t="s">
+      <c r="M31" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="143"/>
-      <c r="O31" s="144"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="124"/>
       <c r="P31" s="88">
         <f>SUM(P29:P30)</f>
         <v>128</v>
@@ -2952,13 +3026,13 @@
       <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
       <c r="G32" s="29"/>
       <c r="H32" s="69"/>
       <c r="I32" s="29"/>
@@ -2971,13 +3045,13 @@
       <c r="A33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="155"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
       <c r="G33" s="29"/>
       <c r="H33" s="69"/>
       <c r="I33" s="29"/>
@@ -2987,13 +3061,13 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="155"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="141"/>
       <c r="G34" s="29"/>
       <c r="H34" s="69"/>
       <c r="I34" s="29"/>
@@ -3003,13 +3077,13 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="155"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="141"/>
       <c r="G35" s="29"/>
       <c r="H35" s="69"/>
       <c r="I35" s="29"/>
@@ -3022,11 +3096,11 @@
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="152"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="132"/>
       <c r="G36" s="81"/>
       <c r="H36" s="76"/>
       <c r="I36" s="38"/>
@@ -3039,11 +3113,11 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="148"/>
       <c r="G37" s="81"/>
       <c r="H37" s="76"/>
       <c r="I37" s="38"/>
@@ -3077,13 +3151,13 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="146"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="111"/>
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
@@ -3105,13 +3179,13 @@
       <c r="S39" s="93"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
       <c r="G40" s="36"/>
       <c r="H40" s="79"/>
       <c r="I40" s="36"/>
@@ -3128,13 +3202,13 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
       <c r="G41" s="29"/>
       <c r="H41" s="69"/>
       <c r="I41" s="29"/>
@@ -3145,13 +3219,13 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
       <c r="G42" s="38"/>
       <c r="H42" s="76"/>
       <c r="I42" s="38"/>
@@ -3173,11 +3247,11 @@
       <c r="J43" s="96"/>
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
-      <c r="M43" s="147" t="s">
+      <c r="M43" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="148"/>
-      <c r="O43" s="149"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="129"/>
       <c r="P43" s="98">
         <f>P15+P21+P29+P30+P39+P40</f>
         <v>376</v>
@@ -3272,19 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B37:F37"/>
@@ -3301,6 +3362,19 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3309,10 +3383,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:B8)</f>
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B10:B14)</f>
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <f>B17</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="160" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3422,11 +3662,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3493,7 +3733,7 @@
       <c r="F5" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="157">
+      <c r="G5" s="119">
         <v>6</v>
       </c>
       <c r="I5" s="112"/>
@@ -3513,13 +3753,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="156">
+      <c r="E6" s="118">
         <v>42665</v>
       </c>
       <c r="F6" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="157">
+      <c r="G6" s="119">
         <v>3</v>
       </c>
       <c r="I6" s="112"/>
@@ -3539,13 +3779,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="156">
+      <c r="E7" s="118">
         <v>42671</v>
       </c>
       <c r="F7" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="157">
+      <c r="G7" s="119">
         <v>4</v>
       </c>
       <c r="I7" s="112"/>
@@ -3565,13 +3805,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="156">
+      <c r="E8" s="118">
         <v>42678</v>
       </c>
       <c r="F8" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="157">
+      <c r="G8" s="119">
         <v>4</v>
       </c>
       <c r="I8" s="112"/>
@@ -3591,13 +3831,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="156">
+      <c r="E9" s="118">
         <v>42678</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="157">
+      <c r="G9" s="119">
         <v>2</v>
       </c>
       <c r="I9" s="112"/>
@@ -3617,13 +3857,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="156">
+      <c r="E10" s="118">
         <v>42685</v>
       </c>
       <c r="F10" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="157">
+      <c r="G10" s="119">
         <v>2</v>
       </c>
     </row>
@@ -3638,13 +3878,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="156">
+      <c r="E11" s="118">
         <v>42685</v>
       </c>
       <c r="F11" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="157">
+      <c r="G11" s="119">
         <v>3</v>
       </c>
     </row>
@@ -3665,7 +3905,7 @@
       <c r="F12" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="119">
         <v>2</v>
       </c>
     </row>
@@ -3686,7 +3926,7 @@
       <c r="F13" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="157">
+      <c r="G13" s="119">
         <v>2</v>
       </c>
     </row>
@@ -3701,13 +3941,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="156">
+      <c r="E14" s="118">
         <v>42692</v>
       </c>
-      <c r="F14" s="159" t="s">
+      <c r="F14" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="157">
+      <c r="G14" s="119">
         <v>5</v>
       </c>
     </row>
@@ -3722,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="156">
+      <c r="E15" s="118">
         <v>42693</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="119">
         <v>4</v>
       </c>
     </row>
@@ -3743,13 +3983,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="156">
+      <c r="E16" s="118">
         <v>42697</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="158">
+      <c r="G16" s="120">
         <v>5</v>
       </c>
     </row>
@@ -3764,13 +4004,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="156">
+      <c r="E17" s="118">
         <v>42698</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="158">
+      <c r="G17" s="120">
         <v>2</v>
       </c>
     </row>
@@ -3838,7 +4078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>

--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Project Week</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Report_Abstract</t>
+  </si>
+  <si>
+    <t>RealTime</t>
   </si>
 </sst>
 </file>
@@ -1583,6 +1586,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1616,88 +1692,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="175">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2177,27 +2180,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="144"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="125"/>
     </row>
     <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2545,11 +2548,11 @@
       <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="102" t="s">
@@ -2586,13 +2589,13 @@
       <c r="A15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
@@ -2627,13 +2630,13 @@
       <c r="A16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="145"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
@@ -2654,13 +2657,13 @@
       <c r="A17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="145"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
@@ -2679,13 +2682,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="77"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="145"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
@@ -2704,13 +2707,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
@@ -2758,13 +2761,13 @@
       <c r="A21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
       <c r="G21" s="29">
         <v>20</v>
       </c>
@@ -2797,13 +2800,13 @@
       <c r="A22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="29">
         <v>10</v>
       </c>
@@ -2822,13 +2825,13 @@
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="29">
         <v>5</v>
       </c>
@@ -2844,13 +2847,13 @@
       <c r="W23" s="31"/>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="29">
         <v>15</v>
       </c>
@@ -2866,13 +2869,13 @@
       <c r="W24" s="31"/>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="29">
         <v>20</v>
       </c>
@@ -2888,13 +2891,13 @@
       <c r="W25" s="31"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="29">
         <v>15</v>
       </c>
@@ -2906,13 +2909,13 @@
       <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="29">
         <v>11</v>
       </c>
@@ -2950,13 +2953,13 @@
       <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="29"/>
       <c r="H29" s="79"/>
       <c r="I29" s="36"/>
@@ -2975,13 +2978,13 @@
       <c r="A30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="145"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="29"/>
       <c r="H30" s="69"/>
       <c r="I30" s="29"/>
@@ -3003,22 +3006,22 @@
       <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
       <c r="G31" s="29"/>
       <c r="H31" s="69"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="M31" s="122" t="s">
+      <c r="M31" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="123"/>
-      <c r="O31" s="124"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="149"/>
       <c r="P31" s="88">
         <f>SUM(P29:P30)</f>
         <v>128</v>
@@ -3026,13 +3029,13 @@
       <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
       <c r="G32" s="29"/>
       <c r="H32" s="69"/>
       <c r="I32" s="29"/>
@@ -3045,13 +3048,13 @@
       <c r="A33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="160"/>
       <c r="G33" s="29"/>
       <c r="H33" s="69"/>
       <c r="I33" s="29"/>
@@ -3061,13 +3064,13 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="141"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="160"/>
       <c r="G34" s="29"/>
       <c r="H34" s="69"/>
       <c r="I34" s="29"/>
@@ -3077,13 +3080,13 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="160"/>
       <c r="G35" s="29"/>
       <c r="H35" s="69"/>
       <c r="I35" s="29"/>
@@ -3096,11 +3099,11 @@
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="157"/>
       <c r="G36" s="81"/>
       <c r="H36" s="76"/>
       <c r="I36" s="38"/>
@@ -3113,11 +3116,11 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
       <c r="G37" s="81"/>
       <c r="H37" s="76"/>
       <c r="I37" s="38"/>
@@ -3151,13 +3154,13 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="126"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="111"/>
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
@@ -3179,13 +3182,13 @@
       <c r="S39" s="93"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
       <c r="G40" s="36"/>
       <c r="H40" s="79"/>
       <c r="I40" s="36"/>
@@ -3202,13 +3205,13 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="29"/>
       <c r="H41" s="69"/>
       <c r="I41" s="29"/>
@@ -3219,13 +3222,13 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="38"/>
       <c r="H42" s="76"/>
       <c r="I42" s="38"/>
@@ -3247,11 +3250,11 @@
       <c r="J43" s="96"/>
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
-      <c r="M43" s="127" t="s">
+      <c r="M43" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="128"/>
-      <c r="O43" s="129"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="154"/>
       <c r="P43" s="98">
         <f>P15+P21+P29+P30+P39+P40</f>
         <v>376</v>
@@ -3346,6 +3349,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B37:F37"/>
@@ -3362,19 +3378,6 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3386,7 +3389,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3397,11 +3400,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="122" t="s">
         <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>105</v>
@@ -3420,6 +3426,9 @@
       <c r="B2">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
       <c r="D2">
         <f>SUM(B2:B8)</f>
         <v>41</v>
@@ -3482,10 +3491,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="122" t="s">
         <v>102</v>
       </c>
     </row>

--- a/PM/Planning_IP-516vt_AppleTVApp4.xlsx
+++ b/PM/Planning_IP-516vt_AppleTVApp4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\IP-5_AppleTV\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreazirn/GitHub/IP-5_AppleTV/PM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="444" windowWidth="23916" windowHeight="19536" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14220" yWindow="440" windowWidth="24720" windowHeight="14700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hours_Beta" sheetId="3" r:id="rId4"/>
     <sheet name="Hours_Gamma" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Project Week</t>
   </si>
@@ -363,12 +363,15 @@
   </si>
   <si>
     <t>RealTime</t>
+  </si>
+  <si>
+    <t>Coach Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -1182,16 +1185,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1587,6 +1590,66 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1596,12 +1659,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1629,12 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1653,231 +1704,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="175">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2172,37 +2175,37 @@
       <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="20" width="5.19921875" customWidth="1"/>
-    <col min="23" max="23" width="21.69921875" customWidth="1"/>
+    <col min="2" max="20" width="5.1640625" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="125"/>
-    </row>
-    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="145"/>
+    </row>
+    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="20">
         <v>42266</v>
@@ -2259,7 +2262,7 @@
         <v>42385</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="16.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="22">
         <v>38</v>
@@ -2316,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="16.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="V4" s="52"/>
       <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2365,7 +2368,7 @@
       <c r="R5" s="42"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2388,7 +2391,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2408,7 +2411,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="34"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2450,7 +2453,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2501,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +2524,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -2544,15 +2547,15 @@
       <c r="R13" s="23"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="102" t="s">
@@ -2585,17 +2588,17 @@
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="29">
         <v>16</v>
       </c>
@@ -2626,17 +2629,17 @@
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="29">
         <v>18</v>
       </c>
@@ -2653,17 +2656,17 @@
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="29">
         <v>20</v>
       </c>
@@ -2680,15 +2683,15 @@
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="77"/>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="29">
         <v>14</v>
       </c>
@@ -2705,15 +2708,15 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="79"/>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="29">
         <v>8</v>
       </c>
@@ -2730,7 +2733,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="109" t="s">
         <v>38</v>
       </c>
@@ -2757,17 +2760,17 @@
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="29">
         <v>20</v>
       </c>
@@ -2796,17 +2799,17 @@
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
     </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="29">
         <v>10</v>
       </c>
@@ -2821,17 +2824,17 @@
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="29">
         <v>5</v>
       </c>
@@ -2846,14 +2849,14 @@
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="137" t="s">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="29">
         <v>15</v>
       </c>
@@ -2868,14 +2871,14 @@
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="137" t="s">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
       <c r="G25" s="29">
         <v>20</v>
       </c>
@@ -2890,14 +2893,14 @@
       <c r="V25" s="31"/>
       <c r="W25" s="31"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="137" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="29">
         <v>15</v>
       </c>
@@ -2908,14 +2911,14 @@
       <c r="P26" s="77"/>
       <c r="S26" s="35"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="137" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="29">
         <v>11</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="P27" s="77"/>
       <c r="S27" s="70"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="110" t="s">
         <v>39</v>
       </c>
@@ -2949,17 +2952,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="41"/>
     </row>
-    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="29"/>
       <c r="H29" s="79"/>
       <c r="I29" s="36"/>
@@ -2974,17 +2977,17 @@
       </c>
       <c r="S29" s="35"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="146"/>
       <c r="G30" s="29"/>
       <c r="H30" s="69"/>
       <c r="I30" s="29"/>
@@ -3005,37 +3008,37 @@
       </c>
       <c r="S30" s="35"/>
     </row>
-    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="145" t="s">
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="29"/>
       <c r="H31" s="69"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="M31" s="147" t="s">
+      <c r="M31" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="148"/>
-      <c r="O31" s="149"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="125"/>
       <c r="P31" s="88">
         <f>SUM(P29:P30)</f>
         <v>128</v>
       </c>
       <c r="S31" s="35"/>
     </row>
-    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="145" t="s">
+    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="29"/>
       <c r="H32" s="69"/>
       <c r="I32" s="29"/>
@@ -3044,17 +3047,17 @@
       <c r="P32" s="77"/>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="160"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
       <c r="G33" s="29"/>
       <c r="H33" s="69"/>
       <c r="I33" s="29"/>
@@ -3063,14 +3066,14 @@
       <c r="P33" s="77"/>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="145" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="160"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="29"/>
       <c r="H34" s="69"/>
       <c r="I34" s="29"/>
@@ -3079,14 +3082,14 @@
       <c r="P34" s="77"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="145" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="160"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
       <c r="G35" s="29"/>
       <c r="H35" s="69"/>
       <c r="I35" s="29"/>
@@ -3095,15 +3098,15 @@
       <c r="P35" s="77"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="157"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="133"/>
       <c r="G36" s="81"/>
       <c r="H36" s="76"/>
       <c r="I36" s="38"/>
@@ -3112,15 +3115,15 @@
       <c r="P36" s="77"/>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="131"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="81"/>
       <c r="H37" s="76"/>
       <c r="I37" s="38"/>
@@ -3129,7 +3132,7 @@
       <c r="P37" s="77"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="110" t="s">
         <v>36</v>
       </c>
@@ -3152,15 +3155,15 @@
       <c r="R38" s="4"/>
       <c r="S38" s="41"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="92"/>
-      <c r="B39" s="150" t="s">
+      <c r="B39" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="151"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
       <c r="G39" s="111"/>
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
@@ -3181,14 +3184,14 @@
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="126" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
       <c r="G40" s="36"/>
       <c r="H40" s="79"/>
       <c r="I40" s="36"/>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="S40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="126" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
       <c r="G41" s="29"/>
       <c r="H41" s="69"/>
       <c r="I41" s="29"/>
@@ -3221,14 +3224,14 @@
       <c r="O41" s="95"/>
       <c r="S41" s="35"/>
     </row>
-    <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="126" t="s">
+    <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
       <c r="G42" s="38"/>
       <c r="H42" s="76"/>
       <c r="I42" s="38"/>
@@ -3237,7 +3240,7 @@
       <c r="P42" s="77"/>
       <c r="S42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
       <c r="B43" s="97"/>
       <c r="C43" s="96"/>
@@ -3250,11 +3253,11 @@
       <c r="J43" s="96"/>
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
-      <c r="M43" s="152" t="s">
+      <c r="M43" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="130"/>
       <c r="P43" s="98">
         <f>P15+P21+P29+P30+P39+P40</f>
         <v>376</v>
@@ -3263,7 +3266,7 @@
       <c r="R43" s="96"/>
       <c r="S43" s="99"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="70"/>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
@@ -3284,7 +3287,7 @@
       <c r="R44" s="70"/>
       <c r="S44" s="70"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="70"/>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -3305,7 +3308,7 @@
       <c r="R45" s="70"/>
       <c r="S45" s="70"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="70"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -3326,7 +3329,7 @@
       <c r="R46" s="70"/>
       <c r="S46" s="70"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="70"/>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
@@ -3349,19 +3352,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B37:F37"/>
@@ -3378,6 +3368,19 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3388,18 +3391,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>98</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>99</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3538,12 +3541,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -3564,13 +3567,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.296875" customWidth="1"/>
-    <col min="2" max="2" width="36.296875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>51</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>47</v>
       </c>
@@ -3586,19 +3589,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>48</v>
       </c>
@@ -3606,19 +3609,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
         <v>49</v>
       </c>
@@ -3626,21 +3629,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="61"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="65"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
         <v>50</v>
       </c>
@@ -3648,19 +3651,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="62" t="s">
         <v>26</v>
@@ -3675,23 +3678,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>72</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>73</v>
       </c>
@@ -3725,7 +3728,7 @@
       <c r="L4" s="112"/>
       <c r="M4" s="112"/>
     </row>
-    <row r="5" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="114">
         <v>42663</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="L5" s="112"/>
       <c r="M5" s="112"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>42664</v>
       </c>
@@ -3777,7 +3780,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="112"/>
     </row>
-    <row r="7" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="114">
         <v>42671</v>
       </c>
@@ -3803,7 +3806,7 @@
       <c r="L7" s="112"/>
       <c r="M7" s="112"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>42672</v>
       </c>
@@ -3829,7 +3832,7 @@
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="117">
         <v>42677</v>
       </c>
@@ -3855,7 +3858,7 @@
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="114">
         <v>42678</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="114">
         <v>42678</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="114">
         <v>42684</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="114">
         <v>42685</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
         <v>42690</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="114">
         <v>42690</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
         <v>42692</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="114">
         <v>42696</v>
       </c>
@@ -4023,38 +4026,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
         <v>42697</v>
       </c>
       <c r="B18" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="116"/>
+      <c r="C18" s="116">
+        <v>3</v>
+      </c>
       <c r="D18" s="40"/>
       <c r="E18" s="115"/>
       <c r="F18" s="113"/>
       <c r="G18" s="113"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="116"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="114">
+        <v>42698</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="116">
+        <v>0.5</v>
+      </c>
       <c r="D19" s="40"/>
       <c r="E19" s="115"/>
       <c r="F19" s="113"/>
       <c r="G19" s="113"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="116"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="114">
+        <v>42699</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="116">
+        <v>5</v>
+      </c>
       <c r="D20" s="40"/>
       <c r="E20" s="115"/>
       <c r="F20" s="113"/>
       <c r="G20" s="113"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="113"/>
       <c r="B21" s="113"/>
       <c r="C21" s="116"/>
@@ -4067,19 +4084,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="113"/>
       <c r="B22" s="113"/>
       <c r="C22" s="116"/>
       <c r="D22" s="40"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="74" t="s">
         <v>64</v>
       </c>
       <c r="C23">
         <f>SUM(C5:C22)</f>
-        <v>39</v>
+        <v>47.5</v>
       </c>
     </row>
   </sheetData>
@@ -4095,7 +4112,7 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
